--- a/Code/Results/Cases/Case_7_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_30/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.795138135020977</v>
+        <v>3.795138135021091</v>
       </c>
       <c r="C2">
-        <v>1.011886330674088</v>
+        <v>1.011886330674713</v>
       </c>
       <c r="D2">
-        <v>0.004546259599698566</v>
+        <v>0.004546259599812252</v>
       </c>
       <c r="E2">
-        <v>0.02625246572510775</v>
+        <v>0.026252465725074</v>
       </c>
       <c r="F2">
         <v>2.936668057108278</v>
       </c>
       <c r="G2">
-        <v>0.000807458177662718</v>
+        <v>0.0008074581776623741</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07522388755438669</v>
+        <v>0.07522388755444709</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0.8750395931975135</v>
       </c>
       <c r="N2">
-        <v>1.329685677463985</v>
+        <v>1.329685677463971</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.29370651208626</v>
+        <v>3.293706512086317</v>
       </c>
       <c r="C3">
-        <v>0.8741920710427848</v>
+        <v>0.8741920710428133</v>
       </c>
       <c r="D3">
-        <v>0.003933823527217051</v>
+        <v>0.003933823527225933</v>
       </c>
       <c r="E3">
-        <v>0.02539107562232168</v>
+        <v>0.02539107562229681</v>
       </c>
       <c r="F3">
-        <v>2.691075095537187</v>
+        <v>2.691075095537144</v>
       </c>
       <c r="G3">
-        <v>0.000817475495635286</v>
+        <v>0.0008174754954651998</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07202859084663871</v>
+        <v>0.07202859084671687</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7643712431167344</v>
+        <v>0.7643712431166989</v>
       </c>
       <c r="N3">
-        <v>1.360761552119584</v>
+        <v>1.360761552119527</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.992337518976456</v>
+        <v>2.992337518976512</v>
       </c>
       <c r="C4">
-        <v>0.7914293818722058</v>
+        <v>0.7914293818718932</v>
       </c>
       <c r="D4">
-        <v>0.003581288019395501</v>
+        <v>0.003581288019263162</v>
       </c>
       <c r="E4">
-        <v>0.02489229877451749</v>
+        <v>0.02489229877451127</v>
       </c>
       <c r="F4">
         <v>2.54692513560876</v>
       </c>
       <c r="G4">
-        <v>0.0008237757036528499</v>
+        <v>0.0008237757037079496</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07020132595998163</v>
+        <v>0.07020132596010953</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6979470266484995</v>
+        <v>0.6979470266485137</v>
       </c>
       <c r="N4">
         <v>1.381999721541078</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.870949007975696</v>
+        <v>2.870949007975582</v>
       </c>
       <c r="C5">
-        <v>0.7580888543196522</v>
+        <v>0.7580888543194817</v>
       </c>
       <c r="D5">
-        <v>0.00344250882588959</v>
+        <v>0.003442508825902912</v>
       </c>
       <c r="E5">
-        <v>0.02469619542203549</v>
+        <v>0.02469619542202395</v>
       </c>
       <c r="F5">
-        <v>2.489686252471401</v>
+        <v>2.489686252471373</v>
       </c>
       <c r="G5">
-        <v>0.0008263830319356069</v>
+        <v>0.0008263830318310239</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06948795223613402</v>
+        <v>0.06948795223615889</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6712146407175084</v>
+        <v>0.6712146407175013</v>
       </c>
       <c r="N5">
-        <v>1.391163219659546</v>
+        <v>1.391163219659433</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.850872486840387</v>
+        <v>2.850872486840274</v>
       </c>
       <c r="C6">
-        <v>0.752574289383233</v>
+        <v>0.7525742893828919</v>
       </c>
       <c r="D6">
-        <v>0.003419731706016726</v>
+        <v>0.003419731705879947</v>
       </c>
       <c r="E6">
-        <v>0.02466405300978192</v>
+        <v>0.02466405300980501</v>
       </c>
       <c r="F6">
-        <v>2.480267977802185</v>
+        <v>2.480267977802214</v>
       </c>
       <c r="G6">
-        <v>0.0008268184536999178</v>
+        <v>0.0008268184537499554</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06937131281830133</v>
+        <v>0.06937131281831554</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6667947289034188</v>
+        <v>0.6667947289034402</v>
       </c>
       <c r="N6">
-        <v>1.392714614688884</v>
+        <v>1.392714614688956</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.990694944665961</v>
+        <v>2.990694944665847</v>
       </c>
       <c r="C7">
-        <v>0.7909782550665341</v>
+        <v>0.7909782550665057</v>
       </c>
       <c r="D7">
-        <v>0.003579397899486914</v>
+        <v>0.003579397899613923</v>
       </c>
       <c r="E7">
-        <v>0.02488962562526975</v>
+        <v>0.0248896256252884</v>
       </c>
       <c r="F7">
-        <v>2.546147314893631</v>
+        <v>2.546147314893645</v>
       </c>
       <c r="G7">
-        <v>0.0008238107023466245</v>
+        <v>0.0008238107023520908</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07019158189067198</v>
+        <v>0.07019158189081054</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6975852037955477</v>
+        <v>0.6975852037955335</v>
       </c>
       <c r="N7">
-        <v>1.382121285914963</v>
+        <v>1.38212128591492</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.620756390790405</v>
+        <v>3.620756390790518</v>
       </c>
       <c r="C8">
-        <v>0.9640000504073782</v>
+        <v>0.9640000504074067</v>
       </c>
       <c r="D8">
-        <v>0.004329555347014846</v>
+        <v>0.004329555347017511</v>
       </c>
       <c r="E8">
-        <v>0.0259489399762316</v>
+        <v>0.02594893997623338</v>
       </c>
       <c r="F8">
         <v>2.850502376469763</v>
       </c>
       <c r="G8">
-        <v>0.0008108825902776046</v>
+        <v>0.0008108825903370357</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07409255059514663</v>
+        <v>0.07409255059526032</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8365340091745423</v>
+        <v>0.8365340091745495</v>
       </c>
       <c r="N8">
-        <v>1.339931503170632</v>
+        <v>1.339931503170646</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.918954921271904</v>
+        <v>4.918954921271961</v>
       </c>
       <c r="C9">
-        <v>1.320610661050182</v>
+        <v>1.320610661049898</v>
       </c>
       <c r="D9">
-        <v>0.006040854630693815</v>
+        <v>0.006040854630803949</v>
       </c>
       <c r="E9">
-        <v>0.0282867266132687</v>
+        <v>0.02828672661326692</v>
       </c>
       <c r="F9">
-        <v>3.508583467765561</v>
+        <v>3.508583467765533</v>
       </c>
       <c r="G9">
-        <v>0.0007865987830450925</v>
+        <v>0.000786598783101859</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08294311711373581</v>
+        <v>0.08294311711368607</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.123560827155345</v>
+        <v>1.123560827155359</v>
       </c>
       <c r="N9">
-        <v>1.276027996070084</v>
+        <v>1.276027996070042</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>5.928485923468429</v>
       </c>
       <c r="C10">
-        <v>1.598262265420601</v>
+        <v>1.598262265420487</v>
       </c>
       <c r="D10">
-        <v>0.007533433443441595</v>
+        <v>0.007533433443073889</v>
       </c>
       <c r="E10">
         <v>0.03019741091962658</v>
@@ -812,7 +812,7 @@
         <v>4.04301042124797</v>
       </c>
       <c r="G10">
-        <v>0.0007692208255850797</v>
+        <v>0.0007692208255997031</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09038830922521157</v>
+        <v>0.09038830922531815</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.404523548185864</v>
+        <v>6.40452354818575</v>
       </c>
       <c r="C11">
         <v>1.729334549434782</v>
       </c>
       <c r="D11">
-        <v>0.008288344907438017</v>
+        <v>0.00828834490757302</v>
       </c>
       <c r="E11">
-        <v>0.0311176642465476</v>
+        <v>0.0311176642465707</v>
       </c>
       <c r="F11">
-        <v>4.300818488278992</v>
+        <v>4.30081848827902</v>
       </c>
       <c r="G11">
-        <v>0.0007613661497983154</v>
+        <v>0.0007613661496114194</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09403588911878558</v>
+        <v>0.09403588911879268</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.452749136043792</v>
+        <v>1.45274913604382</v>
       </c>
       <c r="N11">
-        <v>1.232220118950124</v>
+        <v>1.232220118950053</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.587665259494884</v>
+        <v>6.587665259494997</v>
       </c>
       <c r="C12">
-        <v>1.779789607215946</v>
+        <v>1.77978960721623</v>
       </c>
       <c r="D12">
-        <v>0.008587699821211103</v>
+        <v>0.008587699821502426</v>
       </c>
       <c r="E12">
-        <v>0.03147438237000877</v>
+        <v>0.03147438237004785</v>
       </c>
       <c r="F12">
-        <v>4.400917072395742</v>
+        <v>4.400917072395686</v>
       </c>
       <c r="G12">
-        <v>0.0007583941806550312</v>
+        <v>0.0007583941806535383</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09546015868810542</v>
+        <v>0.09546015868819779</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>1.493367967911354</v>
       </c>
       <c r="N12">
-        <v>1.228649940797567</v>
+        <v>1.228649940797609</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.548086332481603</v>
+        <v>6.548086332481375</v>
       </c>
       <c r="C13">
-        <v>1.768884305465974</v>
+        <v>1.768884305465406</v>
       </c>
       <c r="D13">
-        <v>0.008522582300894754</v>
+        <v>0.008522582300972914</v>
       </c>
       <c r="E13">
-        <v>0.03139717460156533</v>
+        <v>0.03139717460156888</v>
       </c>
       <c r="F13">
         <v>4.379242750168572</v>
       </c>
       <c r="G13">
-        <v>0.0007590342251978019</v>
+        <v>0.0007590342250858881</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09515140658859167</v>
+        <v>0.09515140658849219</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.484589244801271</v>
+        <v>1.484589244801256</v>
       </c>
       <c r="N13">
-        <v>1.229389840958845</v>
+        <v>1.229389840958831</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.419530168954225</v>
+        <v>6.419530168954452</v>
       </c>
       <c r="C14">
-        <v>1.733468211992374</v>
+        <v>1.73346821199209</v>
       </c>
       <c r="D14">
-        <v>0.008312686242208045</v>
+        <v>0.00831268624204462</v>
       </c>
       <c r="E14">
-        <v>0.03114684093664088</v>
+        <v>0.03114684093659648</v>
       </c>
       <c r="F14">
-        <v>4.309001846385172</v>
+        <v>4.309001846385144</v>
       </c>
       <c r="G14">
-        <v>0.0007611216259797683</v>
+        <v>0.000761121626050798</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09415216792569225</v>
+        <v>0.09415216792555725</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.45607719303726</v>
+        <v>1.456077193037231</v>
       </c>
       <c r="N14">
-        <v>1.231913451811565</v>
+        <v>1.231913451811621</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.34117537180515</v>
+        <v>6.341175371805264</v>
       </c>
       <c r="C15">
-        <v>1.711886122903479</v>
+        <v>1.711886122903195</v>
       </c>
       <c r="D15">
-        <v>0.008185959819844157</v>
+        <v>0.00818595981986725</v>
       </c>
       <c r="E15">
-        <v>0.03099460609383087</v>
+        <v>0.030994606093806</v>
       </c>
       <c r="F15">
         <v>4.266310872154264</v>
       </c>
       <c r="G15">
-        <v>0.0007624003781268711</v>
+        <v>0.0007624003780017259</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09354588515122941</v>
+        <v>0.09354588515135021</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.438700749136615</v>
+        <v>1.438700749136601</v>
       </c>
       <c r="N15">
-        <v>1.23354273120745</v>
+        <v>1.233542731207493</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>5.897751535624479</v>
       </c>
       <c r="C16">
-        <v>1.589803387391214</v>
+        <v>1.589803387391385</v>
       </c>
       <c r="D16">
-        <v>0.007485834679151537</v>
+        <v>0.007485834679124892</v>
       </c>
       <c r="E16">
-        <v>0.03013837125670982</v>
+        <v>0.03013837125679331</v>
       </c>
       <c r="F16">
-        <v>4.026487178734641</v>
+        <v>4.026487178734698</v>
       </c>
       <c r="G16">
-        <v>0.0007697347680693859</v>
+        <v>0.0007697347680641006</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09015563029813478</v>
+        <v>0.09015563029807083</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.340389198676164</v>
+        <v>1.340389198676178</v>
       </c>
       <c r="N16">
-        <v>1.244099210354022</v>
+        <v>1.244099210354037</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.630333522036551</v>
+        <v>5.630333522036381</v>
       </c>
       <c r="C17">
-        <v>1.516220205473644</v>
+        <v>1.516220205473473</v>
       </c>
       <c r="D17">
-        <v>0.007077457494100159</v>
+        <v>0.00707745749409483</v>
       </c>
       <c r="E17">
-        <v>0.0296267742826295</v>
+        <v>0.02962677428260108</v>
       </c>
       <c r="F17">
         <v>3.883365029639094</v>
       </c>
       <c r="G17">
-        <v>0.0007742439232082625</v>
+        <v>0.0007742439231369547</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0881462632521135</v>
+        <v>0.08814626325209929</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.281122399834103</v>
+        <v>1.281122399834132</v>
       </c>
       <c r="N17">
-        <v>1.251602140607105</v>
+        <v>1.251602140607091</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.47807125878461</v>
+        <v>5.478071258784496</v>
       </c>
       <c r="C18">
-        <v>1.474336547370399</v>
+        <v>1.474336547370115</v>
       </c>
       <c r="D18">
-        <v>0.006849537252668014</v>
+        <v>0.006849537252791471</v>
       </c>
       <c r="E18">
-        <v>0.02933726362853761</v>
+        <v>0.02933726362856248</v>
       </c>
       <c r="F18">
-        <v>3.802403533833257</v>
+        <v>3.802403533833285</v>
       </c>
       <c r="G18">
-        <v>0.000776842567733448</v>
+        <v>0.000776842567730853</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08701469301147569</v>
+        <v>0.08701469301168174</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.24738551023232</v>
+        <v>1.247385510232348</v>
       </c>
       <c r="N18">
-        <v>1.25627203276602</v>
+        <v>1.256272032766006</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.426771098567826</v>
+        <v>5.426771098568054</v>
       </c>
       <c r="C19">
-        <v>1.46022715764849</v>
+        <v>1.46022715764866</v>
       </c>
       <c r="D19">
-        <v>0.006773493493981597</v>
+        <v>0.006773493493852811</v>
       </c>
       <c r="E19">
-        <v>0.02924003042945778</v>
+        <v>0.02924003042949863</v>
       </c>
       <c r="F19">
         <v>3.775214654426094</v>
       </c>
       <c r="G19">
-        <v>0.0007777234357420669</v>
+        <v>0.0007777234356754535</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08663555842120729</v>
+        <v>0.08663555842115755</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.236020341261664</v>
+        <v>1.236020341261693</v>
       </c>
       <c r="N19">
-        <v>1.257911992019118</v>
+        <v>1.257911992019132</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.658637145814964</v>
+        <v>5.658637145815078</v>
       </c>
       <c r="C20">
-        <v>1.524006868775587</v>
+        <v>1.524006868775757</v>
       </c>
       <c r="D20">
-        <v>0.007120191761073258</v>
+        <v>0.007120191761445405</v>
       </c>
       <c r="E20">
-        <v>0.02968073737667609</v>
+        <v>0.02968073737661214</v>
       </c>
       <c r="F20">
         <v>3.898457595796202</v>
       </c>
       <c r="G20">
-        <v>0.0007737634210764858</v>
+        <v>0.0007737634211343652</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08835762557747984</v>
+        <v>0.08835762557744431</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.287394351177525</v>
+        <v>1.287394351177511</v>
       </c>
       <c r="N20">
         <v>1.250766265315093</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.457208115256265</v>
+        <v>6.457208115256435</v>
       </c>
       <c r="C21">
-        <v>1.743847310534704</v>
+        <v>1.743847310534875</v>
       </c>
       <c r="D21">
-        <v>0.008373948841596146</v>
+        <v>0.008373948841359891</v>
       </c>
       <c r="E21">
-        <v>0.03122013860051176</v>
+        <v>0.03122013860047268</v>
       </c>
       <c r="F21">
         <v>4.329563054168204</v>
       </c>
       <c r="G21">
-        <v>0.0007605084824379429</v>
+        <v>0.0007605084824921067</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09444445294194281</v>
+        <v>0.09444445294200676</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.46443332620629</v>
+        <v>1.464433326206318</v>
       </c>
       <c r="N21">
-        <v>1.231154656947766</v>
+        <v>1.23115465694768</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         <v>1.892390009008921</v>
       </c>
       <c r="D22">
-        <v>0.009273535053134552</v>
+        <v>0.009273535053516468</v>
       </c>
       <c r="E22">
-        <v>0.03227476593681189</v>
+        <v>0.03227476593681544</v>
       </c>
       <c r="F22">
-        <v>4.625936638092554</v>
+        <v>4.625936638092526</v>
       </c>
       <c r="G22">
-        <v>0.0007518569158397964</v>
+        <v>0.0007518569158413507</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09867646769131966</v>
+        <v>0.09867646769130545</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.70677881327174</v>
+        <v>6.706778813271796</v>
       </c>
       <c r="C23">
         <v>1.812614111620803</v>
       </c>
       <c r="D23">
-        <v>0.008785087526785418</v>
+        <v>0.008785087526797852</v>
       </c>
       <c r="E23">
-        <v>0.03170711676449578</v>
+        <v>0.03170711676450999</v>
       </c>
       <c r="F23">
-        <v>4.466284161672888</v>
+        <v>4.46628416167286</v>
       </c>
       <c r="G23">
-        <v>0.0007564751991654984</v>
+        <v>0.0007564751992416072</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09639246799673629</v>
+        <v>0.09639246799656576</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.645836501749841</v>
+        <v>5.645836501749898</v>
       </c>
       <c r="C24">
-        <v>1.520485219092393</v>
+        <v>1.520485219092961</v>
       </c>
       <c r="D24">
-        <v>0.007100850414949456</v>
+        <v>0.007100850414740734</v>
       </c>
       <c r="E24">
-        <v>0.02965632635804916</v>
+        <v>0.02965632635805449</v>
       </c>
       <c r="F24">
         <v>3.891630157351585</v>
       </c>
       <c r="G24">
-        <v>0.0007739806361962985</v>
+        <v>0.0007739806362556667</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08826199543673852</v>
+        <v>0.0882619954368451</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.284557761721643</v>
+        <v>1.284557761721615</v>
       </c>
       <c r="N24">
-        <v>1.251143059976968</v>
+        <v>1.251143059976982</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.559379239382451</v>
+        <v>4.559379239382508</v>
       </c>
       <c r="C25">
         <v>1.221800273560518</v>
       </c>
       <c r="D25">
-        <v>0.005543893658405352</v>
+        <v>0.005543893658282784</v>
       </c>
       <c r="E25">
-        <v>0.02762313502447711</v>
+        <v>0.02762313502453395</v>
       </c>
       <c r="F25">
-        <v>3.322704202374268</v>
+        <v>3.32270420237424</v>
       </c>
       <c r="G25">
-        <v>0.00079307179079082</v>
+        <v>0.0007930717907896018</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08040016714326725</v>
+        <v>0.08040016714316778</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.043984137198841</v>
+        <v>1.043984137198834</v>
       </c>
       <c r="N25">
-        <v>1.291040044713853</v>
+        <v>1.291040044713739</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.795138135021091</v>
+        <v>2.268781494005339</v>
       </c>
       <c r="C2">
-        <v>1.011886330674713</v>
+        <v>0.690690096475123</v>
       </c>
       <c r="D2">
-        <v>0.004546259599812252</v>
+        <v>0.08711471817984773</v>
       </c>
       <c r="E2">
-        <v>0.026252465725074</v>
+        <v>0.0911471220444966</v>
       </c>
       <c r="F2">
-        <v>2.936668057108278</v>
+        <v>1.155828880411235</v>
       </c>
       <c r="G2">
-        <v>0.0008074581776623741</v>
+        <v>0.8765795009686315</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.171608741985409E-05</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07522388755444709</v>
+        <v>0.5681787721662914</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4106336245816848</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.116840798327523</v>
       </c>
       <c r="M2">
-        <v>0.8750395931975135</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.329685677463971</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.6714113675532545</v>
+      </c>
+      <c r="P2">
+        <v>0.7151784857593046</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.293706512086317</v>
+        <v>1.971447982206058</v>
       </c>
       <c r="C3">
-        <v>0.8741920710428133</v>
+        <v>0.5999835700134781</v>
       </c>
       <c r="D3">
-        <v>0.003933823527225933</v>
+        <v>0.07925356762534363</v>
       </c>
       <c r="E3">
-        <v>0.02539107562229681</v>
+        <v>0.08333453290286919</v>
       </c>
       <c r="F3">
-        <v>2.691075095537144</v>
+        <v>1.071302350046167</v>
       </c>
       <c r="G3">
-        <v>0.0008174754954651998</v>
+        <v>0.8030679952213688</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000181008037023922</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07202859084671687</v>
+        <v>0.5393676004674006</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3964009007431812</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1070718875047341</v>
       </c>
       <c r="M3">
-        <v>0.7643712431166989</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.360761552119527</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5863287005595978</v>
+      </c>
+      <c r="P3">
+        <v>0.7484337502400287</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.992337518976512</v>
+        <v>1.789331269177751</v>
       </c>
       <c r="C4">
-        <v>0.7914293818718932</v>
+        <v>0.5444379786668492</v>
       </c>
       <c r="D4">
-        <v>0.003581288019263162</v>
+        <v>0.07443082119387867</v>
       </c>
       <c r="E4">
-        <v>0.02489229877451127</v>
+        <v>0.07853614345959414</v>
       </c>
       <c r="F4">
-        <v>2.54692513560876</v>
+        <v>1.02071695333143</v>
       </c>
       <c r="G4">
-        <v>0.0008237757037079496</v>
+        <v>0.7592088556916252</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0006219492224064371</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07020132596010953</v>
+        <v>0.5224246836443882</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3883865389765724</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1010659209818918</v>
       </c>
       <c r="M4">
-        <v>0.6979470266485137</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.381999721541078</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5342042484270664</v>
+      </c>
+      <c r="P4">
+        <v>0.7696575038017279</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.870949007975582</v>
+        <v>1.71520173270082</v>
       </c>
       <c r="C5">
-        <v>0.7580888543194817</v>
+        <v>0.521830548729838</v>
       </c>
       <c r="D5">
-        <v>0.003442508825902912</v>
+        <v>0.07246537436057565</v>
       </c>
       <c r="E5">
-        <v>0.02469619542202395</v>
+        <v>0.07657876930104202</v>
       </c>
       <c r="F5">
-        <v>2.489686252471373</v>
+        <v>1.000409983234775</v>
       </c>
       <c r="G5">
-        <v>0.0008263830318310239</v>
+        <v>0.7416327191846221</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0008828276439667437</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06948795223615889</v>
+        <v>0.5156969999435148</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3852923213246875</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.09861412991047303</v>
       </c>
       <c r="M5">
-        <v>0.6712146407175013</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.391163219659433</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5129848490611266</v>
+      </c>
+      <c r="P5">
+        <v>0.7785028646479724</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.850872486840274</v>
+        <v>1.70289689796499</v>
       </c>
       <c r="C6">
-        <v>0.7525742893828919</v>
+        <v>0.5180780171262143</v>
       </c>
       <c r="D6">
-        <v>0.003419731705879947</v>
+        <v>0.07213897267676117</v>
       </c>
       <c r="E6">
-        <v>0.02466405300980501</v>
+        <v>0.07625358240299285</v>
       </c>
       <c r="F6">
-        <v>2.480267977802214</v>
+        <v>0.9970559039601454</v>
       </c>
       <c r="G6">
-        <v>0.0008268184537499554</v>
+        <v>0.7387314542172874</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0009309054962547414</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06937131281831554</v>
+        <v>0.5145902282208397</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3847886019209454</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.09820668508963593</v>
       </c>
       <c r="M6">
-        <v>0.6667947289034402</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.392714614688956</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5094624831637162</v>
+      </c>
+      <c r="P6">
+        <v>0.7799833327908825</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.990694944665847</v>
+        <v>1.788331225926186</v>
       </c>
       <c r="C7">
-        <v>0.7909782550665057</v>
+        <v>0.544132986356999</v>
       </c>
       <c r="D7">
-        <v>0.003579397899613923</v>
+        <v>0.0744043165239745</v>
       </c>
       <c r="E7">
-        <v>0.0248896256252884</v>
+        <v>0.07850975578765684</v>
       </c>
       <c r="F7">
-        <v>2.546147314893645</v>
+        <v>1.020441873604426</v>
       </c>
       <c r="G7">
-        <v>0.0008238107023520908</v>
+        <v>0.7589706472248281</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0006251453422958519</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07019158189081054</v>
+        <v>0.5223332507212746</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3883441275679758</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1010328757429058</v>
       </c>
       <c r="M7">
-        <v>0.6975852037955335</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.38212128591492</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.533917997894946</v>
+      </c>
+      <c r="P7">
+        <v>0.7697760073110747</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.620756390790518</v>
+        <v>2.166150626651074</v>
       </c>
       <c r="C8">
-        <v>0.9640000504074067</v>
+        <v>0.6593777162988204</v>
       </c>
       <c r="D8">
-        <v>0.004329555347017511</v>
+        <v>0.08440263916520507</v>
       </c>
       <c r="E8">
-        <v>0.02594893997623338</v>
+        <v>0.08845262689820288</v>
       </c>
       <c r="F8">
-        <v>2.850502376469763</v>
+        <v>1.126396826226866</v>
       </c>
       <c r="G8">
-        <v>0.0008108825903370357</v>
+        <v>0.8509525754126344</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.284824511589179E-06</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07409255059526032</v>
+        <v>0.5580826466587041</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4055693019857003</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1134726501737227</v>
       </c>
       <c r="M8">
-        <v>0.8365340091745495</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.339931503170646</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6420459231721551</v>
+      </c>
+      <c r="P8">
+        <v>0.7264742093670868</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.918954921271961</v>
+        <v>2.911984896416016</v>
       </c>
       <c r="C9">
-        <v>1.320610661049898</v>
+        <v>0.8870206318761973</v>
       </c>
       <c r="D9">
-        <v>0.006040854630803949</v>
+        <v>0.1040977699611574</v>
       </c>
       <c r="E9">
-        <v>0.02828672661326692</v>
+        <v>0.1080179417507132</v>
       </c>
       <c r="F9">
-        <v>3.508583467765533</v>
+        <v>1.345733027367928</v>
       </c>
       <c r="G9">
-        <v>0.000786598783101859</v>
+        <v>1.042634480511239</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001744856779847037</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08294311711368607</v>
+        <v>0.6346556073342526</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.445599595050723</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1379174996870915</v>
       </c>
       <c r="M9">
-        <v>1.123560827155359</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.276027996070042</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.8553845370715152</v>
+      </c>
+      <c r="P9">
+        <v>0.6482250051717671</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.928485923468429</v>
+        <v>3.454572972594804</v>
       </c>
       <c r="C10">
-        <v>1.598262265420487</v>
+        <v>1.048968639449129</v>
       </c>
       <c r="D10">
-        <v>0.007533433443073889</v>
+        <v>0.1160255072279739</v>
       </c>
       <c r="E10">
-        <v>0.03019741091962658</v>
+        <v>0.1181469765843524</v>
       </c>
       <c r="F10">
-        <v>4.04301042124797</v>
+        <v>1.494226822149258</v>
       </c>
       <c r="G10">
-        <v>0.0007692208255997031</v>
+        <v>1.176265196161637</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.005155060098935849</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09038830922531815</v>
+        <v>0.6878292234196124</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4730717540998199</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1495984089704478</v>
       </c>
       <c r="M10">
-        <v>1.347201878007112</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.243292717965659</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.9977371973661207</v>
+      </c>
+      <c r="P10">
+        <v>0.5970808962797065</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.40452354818575</v>
+        <v>3.610472689404844</v>
       </c>
       <c r="C11">
-        <v>1.729334549434782</v>
+        <v>1.061845987390996</v>
       </c>
       <c r="D11">
-        <v>0.00828834490757302</v>
+        <v>0.09961239849559433</v>
       </c>
       <c r="E11">
-        <v>0.0311176642465707</v>
+        <v>0.09013321158819565</v>
       </c>
       <c r="F11">
-        <v>4.30081848827902</v>
+        <v>1.380994703544658</v>
       </c>
       <c r="G11">
-        <v>0.0007613661496114194</v>
+        <v>1.103258158530096</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02390994122935552</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09403588911879268</v>
+        <v>0.6458137780992104</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4313506504837292</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1104123755789992</v>
       </c>
       <c r="M11">
-        <v>1.45274913604382</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.232220118950053</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.928172001874259</v>
+      </c>
+      <c r="P11">
+        <v>0.5968695261207628</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.587665259494997</v>
+        <v>3.625173126592188</v>
       </c>
       <c r="C12">
-        <v>1.77978960721623</v>
+        <v>1.03791298042546</v>
       </c>
       <c r="D12">
-        <v>0.008587699821502426</v>
+        <v>0.08509226800190817</v>
       </c>
       <c r="E12">
-        <v>0.03147438237004785</v>
+        <v>0.07187122427185422</v>
       </c>
       <c r="F12">
-        <v>4.400917072395686</v>
+        <v>1.256818513009506</v>
       </c>
       <c r="G12">
-        <v>0.0007583941806535383</v>
+        <v>1.014597472669621</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06222113478916924</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09546015868819779</v>
+        <v>0.5994559146265317</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3912545895237329</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09070268761341538</v>
       </c>
       <c r="M12">
-        <v>1.493367967911354</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.228649940797609</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.8420381378783901</v>
+      </c>
+      <c r="P12">
+        <v>0.6145020283705094</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.548086332481375</v>
+        <v>3.531801352988737</v>
       </c>
       <c r="C13">
-        <v>1.768884305465406</v>
+        <v>0.9844719361890384</v>
       </c>
       <c r="D13">
-        <v>0.008522582300972914</v>
+        <v>0.07124743505414699</v>
       </c>
       <c r="E13">
-        <v>0.03139717460156888</v>
+        <v>0.06003677439855259</v>
       </c>
       <c r="F13">
-        <v>4.379242750168572</v>
+        <v>1.117380290720547</v>
       </c>
       <c r="G13">
-        <v>0.0007590342250858881</v>
+        <v>0.9088430582515059</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1171588263280512</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09515140658849219</v>
+        <v>0.5470530346888722</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3499815269796684</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08466859235644097</v>
       </c>
       <c r="M13">
-        <v>1.484589244801256</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.229389840958831</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.738955255870394</v>
+      </c>
+      <c r="P13">
+        <v>0.6456115545442103</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.419530168954452</v>
+        <v>3.417994020580238</v>
       </c>
       <c r="C14">
-        <v>1.73346821199209</v>
+        <v>0.9340832656811813</v>
       </c>
       <c r="D14">
-        <v>0.00831268624204462</v>
+        <v>0.06219727602472958</v>
       </c>
       <c r="E14">
-        <v>0.03114684093659648</v>
+        <v>0.05569453325765816</v>
       </c>
       <c r="F14">
-        <v>4.309001846385144</v>
+        <v>1.014349389305266</v>
       </c>
       <c r="G14">
-        <v>0.000761121626050798</v>
+        <v>0.8281241311733112</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1658019498386238</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09415216792555725</v>
+        <v>0.508102140162066</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3210014348376973</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08866450620509525</v>
       </c>
       <c r="M14">
-        <v>1.456077193037231</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.231913451811621</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6603283342220578</v>
+      </c>
+      <c r="P14">
+        <v>0.6738796249447461</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.341175371805264</v>
+        <v>3.367678996008635</v>
       </c>
       <c r="C15">
-        <v>1.711886122903195</v>
+        <v>0.9157008352041771</v>
       </c>
       <c r="D15">
-        <v>0.00818595981986725</v>
+        <v>0.05991934791413911</v>
       </c>
       <c r="E15">
-        <v>0.030994606093806</v>
+        <v>0.05503145980201962</v>
       </c>
       <c r="F15">
-        <v>4.266310872154264</v>
+        <v>0.9858596525378971</v>
       </c>
       <c r="G15">
-        <v>0.0007624003780017259</v>
+        <v>0.8048249285953943</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1780180385082559</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09354588515135021</v>
+        <v>0.4973535614241911</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3136175618261063</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09045911016485064</v>
       </c>
       <c r="M15">
-        <v>1.438700749136601</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.233542731207493</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.6374348074346372</v>
+      </c>
+      <c r="P15">
+        <v>0.6825317891010201</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.897751535624479</v>
+        <v>3.15439952890631</v>
       </c>
       <c r="C16">
-        <v>1.589803387391385</v>
+        <v>0.8581851608437034</v>
       </c>
       <c r="D16">
-        <v>0.007485834679124892</v>
+        <v>0.05798795570472137</v>
       </c>
       <c r="E16">
-        <v>0.03013837125679331</v>
+        <v>0.05343270878213335</v>
       </c>
       <c r="F16">
-        <v>4.026487178734698</v>
+        <v>0.9525621354413261</v>
       </c>
       <c r="G16">
-        <v>0.0007697347680641006</v>
+        <v>0.770064988885963</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1639779020198233</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09015563029807083</v>
+        <v>0.4855232828892042</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3102336213323653</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08685528673067466</v>
       </c>
       <c r="M16">
-        <v>1.340389198676178</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.244099210354037</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.6004424972314268</v>
+      </c>
+      <c r="P16">
+        <v>0.6946268988661828</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.630333522036381</v>
+        <v>3.051468297679264</v>
       </c>
       <c r="C17">
-        <v>1.516220205473473</v>
+        <v>0.8406976507189086</v>
       </c>
       <c r="D17">
-        <v>0.00707745749409483</v>
+        <v>0.06107939347267433</v>
       </c>
       <c r="E17">
-        <v>0.02962677428260108</v>
+        <v>0.05379397412994447</v>
       </c>
       <c r="F17">
-        <v>3.883365029639094</v>
+        <v>0.9811591430474778</v>
       </c>
       <c r="G17">
-        <v>0.0007742439231369547</v>
+        <v>0.7860089927665399</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1255965464116713</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08814626325209929</v>
+        <v>0.4970703594915022</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3229731287283286</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.0805651793463813</v>
       </c>
       <c r="M17">
-        <v>1.281122399834132</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.251602140607091</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6129925578143443</v>
+      </c>
+      <c r="P17">
+        <v>0.6890724367144898</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.478071258784496</v>
+        <v>3.030604409853822</v>
       </c>
       <c r="C18">
-        <v>1.474336547370115</v>
+        <v>0.8555129928481904</v>
       </c>
       <c r="D18">
-        <v>0.006849537252791471</v>
+        <v>0.06980414947130242</v>
       </c>
       <c r="E18">
-        <v>0.02933726362856248</v>
+        <v>0.05956051576162302</v>
       </c>
       <c r="F18">
-        <v>3.802403533833285</v>
+        <v>1.068094715180479</v>
       </c>
       <c r="G18">
-        <v>0.000776842567730853</v>
+        <v>0.8482553228392788</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07269679711138366</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08701469301168174</v>
+        <v>0.5303523920729845</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3515779344875867</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07888581520958371</v>
       </c>
       <c r="M18">
-        <v>1.247385510232348</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.256272032766006</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.6713737338788803</v>
+      </c>
+      <c r="P18">
+        <v>0.6707488223312623</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.426771098568054</v>
+        <v>3.076844018345298</v>
       </c>
       <c r="C19">
-        <v>1.46022715764866</v>
+        <v>0.8955836920982563</v>
       </c>
       <c r="D19">
-        <v>0.006773493493852811</v>
+        <v>0.08395315930695801</v>
       </c>
       <c r="E19">
-        <v>0.02924003042949863</v>
+        <v>0.07480669783495664</v>
       </c>
       <c r="F19">
-        <v>3.775214654426094</v>
+        <v>1.199784873274325</v>
       </c>
       <c r="G19">
-        <v>0.0007777234356754535</v>
+        <v>0.9457691921543443</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02793422133997581</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08663555842115755</v>
+        <v>0.5797730582424663</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3921904155206946</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09243700728489124</v>
       </c>
       <c r="M19">
-        <v>1.236020341261693</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.257911992019132</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.7658421436137672</v>
+      </c>
+      <c r="P19">
+        <v>0.6478264655477801</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.658637145815078</v>
+        <v>3.311270321731058</v>
       </c>
       <c r="C20">
-        <v>1.524006868775757</v>
+        <v>1.006026902260231</v>
       </c>
       <c r="D20">
-        <v>0.007120191761445405</v>
+        <v>0.1127707061101759</v>
       </c>
       <c r="E20">
-        <v>0.02968073737661214</v>
+        <v>0.1152868239978169</v>
       </c>
       <c r="F20">
-        <v>3.898457595796202</v>
+        <v>1.453713064141482</v>
       </c>
       <c r="G20">
-        <v>0.0007737634211343652</v>
+        <v>1.139879530924674</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.004082101641905922</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08835762557744431</v>
+        <v>0.6731934437742098</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4652502470745645</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1462342658674629</v>
       </c>
       <c r="M20">
-        <v>1.287394351177511</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.250766265315093</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.9596242471820418</v>
+      </c>
+      <c r="P20">
+        <v>0.6102218768928083</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.457208115256435</v>
+        <v>3.746034501889653</v>
       </c>
       <c r="C21">
-        <v>1.743847310534875</v>
+        <v>1.141887658799533</v>
       </c>
       <c r="D21">
-        <v>0.008373948841359891</v>
+        <v>0.1261387433466297</v>
       </c>
       <c r="E21">
-        <v>0.03122013860047268</v>
+        <v>0.1299573451869342</v>
       </c>
       <c r="F21">
-        <v>4.329563054168204</v>
+        <v>1.603973475903814</v>
       </c>
       <c r="G21">
-        <v>0.0007605084824921067</v>
+        <v>1.270154833966956</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.00755733786178997</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09444445294200676</v>
+        <v>0.7278471129327215</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4980428726435306</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1653335053079772</v>
       </c>
       <c r="M21">
-        <v>1.464433326206318</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.23115465694768</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.093768226682343</v>
+      </c>
+      <c r="P21">
+        <v>0.5696781605489001</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.996158048938241</v>
+        <v>4.026515823976297</v>
       </c>
       <c r="C22">
-        <v>1.892390009008921</v>
+        <v>1.227678876685957</v>
       </c>
       <c r="D22">
-        <v>0.009273535053516468</v>
+        <v>0.1335665478587416</v>
       </c>
       <c r="E22">
-        <v>0.03227476593681544</v>
+        <v>0.1373712943236605</v>
       </c>
       <c r="F22">
-        <v>4.625936638092526</v>
+        <v>1.693473080458901</v>
       </c>
       <c r="G22">
-        <v>0.0007518569158413507</v>
+        <v>1.349417713261204</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01031688263866429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09867646769130545</v>
+        <v>0.7607233122314199</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.5172535922355976</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1746070381415237</v>
       </c>
       <c r="M22">
-        <v>1.583989388049744</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.222010785002951</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.173885567890906</v>
+      </c>
+      <c r="P22">
+        <v>0.5450600800678096</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.706778813271796</v>
+        <v>3.876651302132814</v>
       </c>
       <c r="C23">
-        <v>1.812614111620803</v>
+        <v>1.181834141617458</v>
       </c>
       <c r="D23">
-        <v>0.008785087526797852</v>
+        <v>0.1295965151948337</v>
       </c>
       <c r="E23">
-        <v>0.03170711676450999</v>
+        <v>0.133407171115465</v>
       </c>
       <c r="F23">
-        <v>4.46628416167286</v>
+        <v>1.645495654777719</v>
       </c>
       <c r="G23">
-        <v>0.0007564751992416072</v>
+        <v>1.306902895013593</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.008794589734269248</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09639246799656576</v>
+        <v>0.743066794625463</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5068961250104991</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.169647899082257</v>
       </c>
       <c r="M23">
-        <v>1.519789469679196</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.226527289857827</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.131081078906476</v>
+      </c>
+      <c r="P23">
+        <v>0.558108829454067</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.645836501749898</v>
+        <v>3.312447811414359</v>
       </c>
       <c r="C24">
-        <v>1.520485219092961</v>
+        <v>1.009349555818545</v>
       </c>
       <c r="D24">
-        <v>0.007100850414740734</v>
+        <v>0.1146739110488255</v>
       </c>
       <c r="E24">
-        <v>0.02965632635805449</v>
+        <v>0.1185356607650405</v>
       </c>
       <c r="F24">
-        <v>3.891630157351585</v>
+        <v>1.468180161283527</v>
       </c>
       <c r="G24">
-        <v>0.0007739806362556667</v>
+        <v>1.150287171276744</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.004070003744775175</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0882619954368451</v>
+        <v>0.6785045020401412</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4698642012104486</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1510570171122367</v>
       </c>
       <c r="M24">
-        <v>1.284557761721615</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.251143059976982</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.9698687481571682</v>
+      </c>
+      <c r="P24">
+        <v>0.6094590922761967</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.559379239382508</v>
+        <v>2.709480438967432</v>
       </c>
       <c r="C25">
-        <v>1.221800273560518</v>
+        <v>0.8251900645823014</v>
       </c>
       <c r="D25">
-        <v>0.005543893658282784</v>
+        <v>0.09875180342452694</v>
       </c>
       <c r="E25">
-        <v>0.02762313502453395</v>
+        <v>0.1027061477854829</v>
       </c>
       <c r="F25">
-        <v>3.32270420237424</v>
+        <v>1.2849921401328</v>
       </c>
       <c r="G25">
-        <v>0.0007930717907896018</v>
+        <v>0.989396157967974</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0009208840659189477</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08040016714316778</v>
+        <v>0.6131684920539726</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4340271962037363</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1312825277114058</v>
       </c>
       <c r="M25">
-        <v>1.043984137198834</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.291040044713739</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0.7974751567014735</v>
+      </c>
+      <c r="P25">
+        <v>0.6686393904583845</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.268781494005339</v>
+        <v>2.144588927198527</v>
       </c>
       <c r="C2">
-        <v>0.690690096475123</v>
+        <v>0.7523712744636555</v>
       </c>
       <c r="D2">
-        <v>0.08711471817984773</v>
+        <v>0.09420687255702376</v>
       </c>
       <c r="E2">
-        <v>0.0911471220444966</v>
+        <v>0.09248619519279444</v>
       </c>
       <c r="F2">
-        <v>1.155828880411235</v>
+        <v>1.074263185618165</v>
       </c>
       <c r="G2">
-        <v>0.8765795009686315</v>
+        <v>0.7698364056088138</v>
       </c>
       <c r="H2">
-        <v>2.171608741985409E-05</v>
+        <v>8.170931289130934E-06</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5681787721662914</v>
+        <v>0.5690953027429373</v>
       </c>
       <c r="K2">
-        <v>0.4106336245816848</v>
+        <v>0.3566519278352764</v>
       </c>
       <c r="L2">
-        <v>0.116840798327523</v>
+        <v>0.1920632445268922</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0905697451795362</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1147122759193628</v>
       </c>
       <c r="O2">
-        <v>0.6714113675532545</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7151784857593046</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6688903131620947</v>
+      </c>
+      <c r="R2">
+        <v>0.720522606819479</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.971447982206058</v>
+        <v>1.871948327060295</v>
       </c>
       <c r="C3">
-        <v>0.5999835700134781</v>
+        <v>0.6503576190246463</v>
       </c>
       <c r="D3">
-        <v>0.07925356762534363</v>
+        <v>0.08568721158570014</v>
       </c>
       <c r="E3">
-        <v>0.08333453290286919</v>
+        <v>0.08495132682460671</v>
       </c>
       <c r="F3">
-        <v>1.071302350046167</v>
+        <v>1.00159047308</v>
       </c>
       <c r="G3">
-        <v>0.8030679952213688</v>
+        <v>0.7098681041903774</v>
       </c>
       <c r="H3">
-        <v>0.000181008037023922</v>
+        <v>0.0001906126369761729</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5393676004674006</v>
+        <v>0.5422050681351607</v>
       </c>
       <c r="K3">
-        <v>0.3964009007431812</v>
+        <v>0.3484416604131546</v>
       </c>
       <c r="L3">
-        <v>0.1070718875047341</v>
+        <v>0.1948597091938709</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.08201153393265415</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1058506411418492</v>
       </c>
       <c r="O3">
-        <v>0.5863287005595978</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7484337502400287</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5845635083888467</v>
+      </c>
+      <c r="R3">
+        <v>0.7465240583366466</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.789331269177751</v>
+        <v>1.704409856457318</v>
       </c>
       <c r="C4">
-        <v>0.5444379786668492</v>
+        <v>0.5880082179648412</v>
       </c>
       <c r="D4">
-        <v>0.07443082119387867</v>
+        <v>0.08047433194514042</v>
       </c>
       <c r="E4">
-        <v>0.07853614345959414</v>
+        <v>0.08032048266952607</v>
       </c>
       <c r="F4">
-        <v>1.02071695333143</v>
+        <v>0.9579172089310504</v>
       </c>
       <c r="G4">
-        <v>0.7592088556916252</v>
+        <v>0.6741483312776921</v>
       </c>
       <c r="H4">
-        <v>0.0006219492224064371</v>
+        <v>0.0005945872093253701</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5224246836443882</v>
+        <v>0.5259825703053735</v>
       </c>
       <c r="K4">
-        <v>0.3883865389765724</v>
+        <v>0.343878225998548</v>
       </c>
       <c r="L4">
-        <v>0.1010659209818918</v>
+        <v>0.1966365786443447</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.07758419065048727</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1003880801532233</v>
       </c>
       <c r="O4">
-        <v>0.5342042484270664</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7696575038017279</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5328485170260535</v>
+      </c>
+      <c r="R4">
+        <v>0.7632785074247934</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.71520173270082</v>
+        <v>1.636084191144846</v>
       </c>
       <c r="C5">
-        <v>0.521830548729838</v>
+        <v>0.5626631744753183</v>
       </c>
       <c r="D5">
-        <v>0.07246537436057565</v>
+        <v>0.07835374685122076</v>
       </c>
       <c r="E5">
-        <v>0.07657876930104202</v>
+        <v>0.0784310306344107</v>
       </c>
       <c r="F5">
-        <v>1.000409983234775</v>
+        <v>0.9403402853664176</v>
       </c>
       <c r="G5">
-        <v>0.7416327191846221</v>
+        <v>0.6598471531532937</v>
       </c>
       <c r="H5">
-        <v>0.0008828276439667437</v>
+        <v>0.0008284796573476694</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5156969999435148</v>
+        <v>0.5194388477274288</v>
       </c>
       <c r="K5">
-        <v>0.3852923213246875</v>
+        <v>0.3421314905513917</v>
       </c>
       <c r="L5">
-        <v>0.09861412991047303</v>
+        <v>0.197375221382238</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.07598251465283568</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.09815486849408472</v>
       </c>
       <c r="O5">
-        <v>0.5129848490611266</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7785028646479724</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5117837844421445</v>
+      </c>
+      <c r="R5">
+        <v>0.7702998087496304</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.70289689796499</v>
+        <v>1.624735092778081</v>
       </c>
       <c r="C6">
-        <v>0.5180780171262143</v>
+        <v>0.5584581800772241</v>
       </c>
       <c r="D6">
-        <v>0.07213897267676117</v>
+        <v>0.07800182445397752</v>
       </c>
       <c r="E6">
-        <v>0.07625358240299285</v>
+        <v>0.07811711184187686</v>
       </c>
       <c r="F6">
-        <v>0.9970559039601454</v>
+        <v>0.9374344418579028</v>
       </c>
       <c r="G6">
-        <v>0.7387314542172874</v>
+        <v>0.657487228079674</v>
       </c>
       <c r="H6">
-        <v>0.0009309054962547414</v>
+        <v>0.000871383026506134</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5145902282208397</v>
+        <v>0.5183561659795402</v>
       </c>
       <c r="K6">
-        <v>0.3847886019209454</v>
+        <v>0.3418480604029135</v>
       </c>
       <c r="L6">
-        <v>0.09820668508963593</v>
+        <v>0.1974987375875443</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.07572863109135497</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09778356181726977</v>
       </c>
       <c r="O6">
-        <v>0.5094624831637162</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7799833327908825</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5082864079522054</v>
+      </c>
+      <c r="R6">
+        <v>0.7714772562043315</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.788331225926186</v>
+        <v>1.701788121445929</v>
       </c>
       <c r="C7">
-        <v>0.544132986356999</v>
+        <v>0.586335721172162</v>
       </c>
       <c r="D7">
-        <v>0.0744043165239745</v>
+        <v>0.08063409149528411</v>
       </c>
       <c r="E7">
-        <v>0.07850975578765684</v>
+        <v>0.08034822570668076</v>
       </c>
       <c r="F7">
-        <v>1.020441873604426</v>
+        <v>0.9558288151568775</v>
       </c>
       <c r="G7">
-        <v>0.7589706472248281</v>
+        <v>0.6777590971714034</v>
       </c>
       <c r="H7">
-        <v>0.0006251453422958519</v>
+        <v>0.000600080722621632</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5223332507212746</v>
+        <v>0.5188747951038692</v>
       </c>
       <c r="K7">
-        <v>0.3883441275679758</v>
+        <v>0.343140937858827</v>
       </c>
       <c r="L7">
-        <v>0.1010328757429058</v>
+        <v>0.1963156965919453</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.07735071321581444</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1003371193196294</v>
       </c>
       <c r="O7">
-        <v>0.533917997894946</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7697760073110747</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5321461725140679</v>
+      </c>
+      <c r="R7">
+        <v>0.7635717650287184</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.166150626651074</v>
+        <v>2.044894783101654</v>
       </c>
       <c r="C8">
-        <v>0.6593777162988204</v>
+        <v>0.7126478106291074</v>
       </c>
       <c r="D8">
-        <v>0.08440263916520507</v>
+        <v>0.09190193511874867</v>
       </c>
       <c r="E8">
-        <v>0.08845262689820288</v>
+        <v>0.09006974784832877</v>
       </c>
       <c r="F8">
-        <v>1.126396826226866</v>
+        <v>1.042848025024682</v>
       </c>
       <c r="G8">
-        <v>0.8509525754126344</v>
+        <v>0.7616569013660097</v>
       </c>
       <c r="H8">
-        <v>2.284824511589179E-06</v>
+        <v>8.8995088249888E-06</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5580826466587041</v>
+        <v>0.5366511603915143</v>
       </c>
       <c r="K8">
-        <v>0.4055693019857003</v>
+        <v>0.3513696435227516</v>
       </c>
       <c r="L8">
-        <v>0.1134726501737227</v>
+        <v>0.1920035656346926</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.08667036282317042</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1115938111453296</v>
       </c>
       <c r="O8">
-        <v>0.6420459231721551</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7264742093670868</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6383914549470973</v>
+      </c>
+      <c r="R8">
+        <v>0.7301040713764486</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.911984896416016</v>
+        <v>2.723715428246578</v>
       </c>
       <c r="C9">
-        <v>0.8870206318761973</v>
+        <v>0.9679093011824591</v>
       </c>
       <c r="D9">
-        <v>0.1040977699611574</v>
+        <v>0.1134993773187887</v>
       </c>
       <c r="E9">
-        <v>0.1080179417507132</v>
+        <v>0.1089639667200437</v>
       </c>
       <c r="F9">
-        <v>1.345733027367928</v>
+        <v>1.228595277521592</v>
       </c>
       <c r="G9">
-        <v>1.042634480511239</v>
+        <v>0.9220617999142604</v>
       </c>
       <c r="H9">
-        <v>0.001744856779847037</v>
+        <v>0.001349340365395468</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6346556073342526</v>
+        <v>0.5991361349188224</v>
       </c>
       <c r="K9">
-        <v>0.445599595050723</v>
+        <v>0.3742273418789921</v>
       </c>
       <c r="L9">
-        <v>0.1379174996870915</v>
+        <v>0.1852542061812557</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.112535167226369</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.133656872053983</v>
       </c>
       <c r="O9">
-        <v>0.8553845370715152</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6482250051717671</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.8490444381584865</v>
+      </c>
+      <c r="R9">
+        <v>0.6702419511822626</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.454572972594804</v>
+        <v>3.205219496743553</v>
       </c>
       <c r="C10">
-        <v>1.048968639449129</v>
+        <v>1.141369019483477</v>
       </c>
       <c r="D10">
-        <v>0.1160255072279739</v>
+        <v>0.1277064113102568</v>
       </c>
       <c r="E10">
-        <v>0.1181469765843524</v>
+        <v>0.1187554286314274</v>
       </c>
       <c r="F10">
-        <v>1.494226822149258</v>
+        <v>1.341619502027271</v>
       </c>
       <c r="G10">
-        <v>1.176265196161637</v>
+        <v>1.056668403646</v>
       </c>
       <c r="H10">
-        <v>0.005155060098935849</v>
+        <v>0.004116332338488071</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6878292234196124</v>
+        <v>0.6008901479672772</v>
       </c>
       <c r="K10">
-        <v>0.4730717540998199</v>
+        <v>0.3849685910551983</v>
       </c>
       <c r="L10">
-        <v>0.1495984089704478</v>
+        <v>0.1773888614690549</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1324135767579797</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1435035613959954</v>
       </c>
       <c r="O10">
-        <v>0.9977371973661207</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5970808962797065</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9866064846650104</v>
+      </c>
+      <c r="R10">
+        <v>0.6354392938736453</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.610472689404844</v>
+        <v>3.334799577243189</v>
       </c>
       <c r="C11">
-        <v>1.061845987390996</v>
+        <v>1.13483555218636</v>
       </c>
       <c r="D11">
-        <v>0.09961239849559433</v>
+        <v>0.1111851245197499</v>
       </c>
       <c r="E11">
-        <v>0.09013321158819565</v>
+        <v>0.08981335591966655</v>
       </c>
       <c r="F11">
-        <v>1.380994703544658</v>
+        <v>1.215512975273441</v>
       </c>
       <c r="G11">
-        <v>1.103258158530096</v>
+        <v>1.039844971626394</v>
       </c>
       <c r="H11">
-        <v>0.02390994122935552</v>
+        <v>0.02270738930394955</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6458137780992104</v>
+        <v>0.4881991455663695</v>
       </c>
       <c r="K11">
-        <v>0.4313506504837292</v>
+        <v>0.341778739784651</v>
       </c>
       <c r="L11">
-        <v>0.1104123755789992</v>
+        <v>0.1570707699059746</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1219823136529001</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1045246806485238</v>
       </c>
       <c r="O11">
-        <v>0.928172001874259</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5968695261207628</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.9121547057027968</v>
+      </c>
+      <c r="R11">
+        <v>0.657111219287053</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.625173126592188</v>
+        <v>3.347189427950696</v>
       </c>
       <c r="C12">
-        <v>1.03791298042546</v>
+        <v>1.097366561945648</v>
       </c>
       <c r="D12">
-        <v>0.08509226800190817</v>
+        <v>0.09517421516187596</v>
       </c>
       <c r="E12">
-        <v>0.07187122427185422</v>
+        <v>0.07047842733667586</v>
       </c>
       <c r="F12">
-        <v>1.256818513009506</v>
+        <v>1.09570752648979</v>
       </c>
       <c r="G12">
-        <v>1.014597472669621</v>
+        <v>0.9820969779271422</v>
       </c>
       <c r="H12">
-        <v>0.06222113478916924</v>
+        <v>0.06103453947483217</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5994559146265317</v>
+        <v>0.4218676497843177</v>
       </c>
       <c r="K12">
-        <v>0.3912545895237329</v>
+        <v>0.3068695478543191</v>
       </c>
       <c r="L12">
-        <v>0.09070268761341538</v>
+        <v>0.1433220482554809</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1099811362602701</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.08536665064697768</v>
       </c>
       <c r="O12">
-        <v>0.8420381378783901</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6145020283705094</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.8247721703636728</v>
+      </c>
+      <c r="R12">
+        <v>0.688849624662069</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.531801352988737</v>
+        <v>3.274578751589274</v>
       </c>
       <c r="C13">
-        <v>0.9844719361890384</v>
+        <v>1.037374229602847</v>
       </c>
       <c r="D13">
-        <v>0.07124743505414699</v>
+        <v>0.07865395427497646</v>
       </c>
       <c r="E13">
-        <v>0.06003677439855259</v>
+        <v>0.05759537295375772</v>
       </c>
       <c r="F13">
-        <v>1.117380290720547</v>
+        <v>0.9767446191748803</v>
       </c>
       <c r="G13">
-        <v>0.9088430582515059</v>
+        <v>0.8811746943995757</v>
       </c>
       <c r="H13">
-        <v>0.1171588263280512</v>
+        <v>0.1161360380418586</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5470530346888722</v>
+        <v>0.3927484742933132</v>
       </c>
       <c r="K13">
-        <v>0.3499815269796684</v>
+        <v>0.277009993640533</v>
       </c>
       <c r="L13">
-        <v>0.08466859235644097</v>
+        <v>0.1335019559120312</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.09678863452817765</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.0801910999670632</v>
       </c>
       <c r="O13">
-        <v>0.738955255870394</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6456115545442103</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7238138735371393</v>
+      </c>
+      <c r="R13">
+        <v>0.7256061143883201</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.417994020580238</v>
+        <v>3.185245578499348</v>
       </c>
       <c r="C14">
-        <v>0.9340832656811813</v>
+        <v>0.9852091200632174</v>
       </c>
       <c r="D14">
-        <v>0.06219727602472958</v>
+        <v>0.06746341858574567</v>
       </c>
       <c r="E14">
-        <v>0.05569453325765816</v>
+        <v>0.05268929747327311</v>
       </c>
       <c r="F14">
-        <v>1.014349389305266</v>
+        <v>0.8939682086674168</v>
       </c>
       <c r="G14">
-        <v>0.8281241311733112</v>
+        <v>0.7938455286979291</v>
       </c>
       <c r="H14">
-        <v>0.1658019498386238</v>
+        <v>0.1649425728108014</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.508102140162066</v>
+        <v>0.3862279235364099</v>
       </c>
       <c r="K14">
-        <v>0.3210014348376973</v>
+        <v>0.2582385178800379</v>
       </c>
       <c r="L14">
-        <v>0.08866450620509525</v>
+        <v>0.128151016037112</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.08717163736843148</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0849008197507537</v>
       </c>
       <c r="O14">
-        <v>0.6603283342220578</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6738796249447461</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6479019850391481</v>
+      </c>
+      <c r="R14">
+        <v>0.7531366863327378</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.367678996008635</v>
+        <v>3.1452627984429</v>
       </c>
       <c r="C15">
-        <v>0.9157008352041771</v>
+        <v>0.9674916775140616</v>
       </c>
       <c r="D15">
-        <v>0.05991934791413911</v>
+        <v>0.06454739168022172</v>
       </c>
       <c r="E15">
-        <v>0.05503145980201962</v>
+        <v>0.05196726424765408</v>
       </c>
       <c r="F15">
-        <v>0.9858596525378971</v>
+        <v>0.873025649938711</v>
       </c>
       <c r="G15">
-        <v>0.8048249285953943</v>
+        <v>0.7650003141701518</v>
       </c>
       <c r="H15">
-        <v>0.1780180385082559</v>
+        <v>0.1772280543686264</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4973535614241911</v>
+        <v>0.3903588284344579</v>
       </c>
       <c r="K15">
-        <v>0.3136175618261063</v>
+        <v>0.2543502953387424</v>
       </c>
       <c r="L15">
-        <v>0.09045911016485064</v>
+        <v>0.1274384481564041</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.08453552543193155</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.08693948697308684</v>
       </c>
       <c r="O15">
-        <v>0.6374348074346372</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6825317891010201</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6261919483281488</v>
+      </c>
+      <c r="R15">
+        <v>0.7596673263994447</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.15439952890631</v>
+        <v>2.969939792420973</v>
       </c>
       <c r="C16">
-        <v>0.8581851608437034</v>
+        <v>0.9182932499493859</v>
       </c>
       <c r="D16">
-        <v>0.05798795570472137</v>
+        <v>0.06146462378194073</v>
       </c>
       <c r="E16">
-        <v>0.05343270878213335</v>
+        <v>0.05093924191810517</v>
       </c>
       <c r="F16">
-        <v>0.9525621354413261</v>
+        <v>0.862903218240902</v>
       </c>
       <c r="G16">
-        <v>0.770064988885963</v>
+        <v>0.6983990257441235</v>
       </c>
       <c r="H16">
-        <v>0.1639779020198233</v>
+        <v>0.1634730805918707</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4855232828892042</v>
+        <v>0.440258577133207</v>
       </c>
       <c r="K16">
-        <v>0.3102336213323653</v>
+        <v>0.2600666535203615</v>
       </c>
       <c r="L16">
-        <v>0.08685528673067466</v>
+        <v>0.1330016462541224</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.08128149932583639</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.08403171770968498</v>
       </c>
       <c r="O16">
-        <v>0.6004424972314268</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6946268988661828</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5937384765984177</v>
+      </c>
+      <c r="R16">
+        <v>0.7560906133929564</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.051468297679264</v>
+        <v>2.880270089713804</v>
       </c>
       <c r="C17">
-        <v>0.8406976507189086</v>
+        <v>0.9062279455328905</v>
       </c>
       <c r="D17">
-        <v>0.06107939347267433</v>
+        <v>0.06473280497889533</v>
       </c>
       <c r="E17">
-        <v>0.05379397412994447</v>
+        <v>0.05185671806112779</v>
       </c>
       <c r="F17">
-        <v>0.9811591430474778</v>
+        <v>0.8972317429160626</v>
       </c>
       <c r="G17">
-        <v>0.7860089927665399</v>
+        <v>0.6976163032852298</v>
       </c>
       <c r="H17">
-        <v>0.1255965464116713</v>
+        <v>0.125210701797613</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4970703594915022</v>
+        <v>0.4772285885524639</v>
       </c>
       <c r="K17">
-        <v>0.3229731287283286</v>
+        <v>0.2739828857318116</v>
       </c>
       <c r="L17">
-        <v>0.0805651793463813</v>
+        <v>0.1402702087769221</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.08349652580611178</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0778819680164986</v>
       </c>
       <c r="O17">
-        <v>0.6129925578143443</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6890724367144898</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6080036383223018</v>
+      </c>
+      <c r="R17">
+        <v>0.7411095481961638</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.030604409853822</v>
+        <v>2.85742509465922</v>
       </c>
       <c r="C18">
-        <v>0.8555129928481904</v>
+        <v>0.9276816522326783</v>
       </c>
       <c r="D18">
-        <v>0.06980414947130242</v>
+        <v>0.07452480742436762</v>
       </c>
       <c r="E18">
-        <v>0.05956051576162302</v>
+        <v>0.05823811041909099</v>
       </c>
       <c r="F18">
-        <v>1.068094715180479</v>
+        <v>0.9790708028178585</v>
       </c>
       <c r="G18">
-        <v>0.8482553228392788</v>
+        <v>0.7454254499943005</v>
       </c>
       <c r="H18">
-        <v>0.07269679711138366</v>
+        <v>0.07233006400325337</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5303523920729845</v>
+        <v>0.5181854823678833</v>
       </c>
       <c r="K18">
-        <v>0.3515779344875867</v>
+        <v>0.2983133751634135</v>
       </c>
       <c r="L18">
-        <v>0.07888581520958371</v>
+        <v>0.1505814657343372</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.09113331349377063</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07589255311902066</v>
       </c>
       <c r="O18">
-        <v>0.6713737338788803</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6707488223312623</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.6667473144971012</v>
+      </c>
+      <c r="R18">
+        <v>0.7156326507278763</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.076844018345298</v>
+        <v>2.891263587571359</v>
       </c>
       <c r="C19">
-        <v>0.8955836920982563</v>
+        <v>0.9762072461017226</v>
       </c>
       <c r="D19">
-        <v>0.08395315930695801</v>
+        <v>0.0904082091477747</v>
       </c>
       <c r="E19">
-        <v>0.07480669783495664</v>
+        <v>0.07417595726592197</v>
       </c>
       <c r="F19">
-        <v>1.199784873274325</v>
+        <v>1.098119822883604</v>
       </c>
       <c r="G19">
-        <v>0.9457691921543443</v>
+        <v>0.827889288870935</v>
       </c>
       <c r="H19">
-        <v>0.02793422133997581</v>
+        <v>0.02749488614290385</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5797730582424663</v>
+        <v>0.5648606953471926</v>
       </c>
       <c r="K19">
-        <v>0.3921904155206946</v>
+        <v>0.3307258552359471</v>
       </c>
       <c r="L19">
-        <v>0.09243700728489124</v>
+        <v>0.1630939853468831</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1031540821583334</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0887421313021779</v>
       </c>
       <c r="O19">
-        <v>0.7658421436137672</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6478264655477801</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.7607282941112103</v>
+      </c>
+      <c r="R19">
+        <v>0.6863761363093772</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.311270321731058</v>
+        <v>3.08468679397464</v>
       </c>
       <c r="C20">
-        <v>1.006026902260231</v>
+        <v>1.100336139706258</v>
       </c>
       <c r="D20">
-        <v>0.1127707061101759</v>
+        <v>0.123128523257229</v>
       </c>
       <c r="E20">
-        <v>0.1152868239978169</v>
+        <v>0.1157830666383681</v>
       </c>
       <c r="F20">
-        <v>1.453713064141482</v>
+        <v>1.317334497671112</v>
       </c>
       <c r="G20">
-        <v>1.139879530924674</v>
+        <v>1.00607742666034</v>
       </c>
       <c r="H20">
-        <v>0.004082101641905922</v>
+        <v>0.003258613097537388</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6731934437742098</v>
+        <v>0.6241646196887274</v>
       </c>
       <c r="K20">
-        <v>0.4652502470745645</v>
+        <v>0.3841908311183602</v>
       </c>
       <c r="L20">
-        <v>0.1462342658674629</v>
+        <v>0.1802124093976545</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.127814813831403</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1407010578852876</v>
       </c>
       <c r="O20">
-        <v>0.9596242471820418</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6102218768928083</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.9513540090416228</v>
+      </c>
+      <c r="R20">
+        <v>0.6431519732723885</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.746034501889653</v>
+        <v>3.433731980277116</v>
       </c>
       <c r="C21">
-        <v>1.141887658799533</v>
+        <v>1.220413923369335</v>
       </c>
       <c r="D21">
-        <v>0.1261387433466297</v>
+        <v>0.1426946699578764</v>
       </c>
       <c r="E21">
-        <v>0.1299573451869342</v>
+        <v>0.1315108560224942</v>
       </c>
       <c r="F21">
-        <v>1.603973475903814</v>
+        <v>1.400286318675143</v>
       </c>
       <c r="G21">
-        <v>1.270154833966956</v>
+        <v>1.210810689369737</v>
       </c>
       <c r="H21">
-        <v>0.00755733786178997</v>
+        <v>0.005934521682921745</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7278471129327215</v>
+        <v>0.5160436724794124</v>
       </c>
       <c r="K21">
-        <v>0.4980428726435306</v>
+        <v>0.3881350079582475</v>
       </c>
       <c r="L21">
-        <v>0.1653335053079772</v>
+        <v>0.1725901646523376</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1422469531778461</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1577880669267131</v>
       </c>
       <c r="O21">
-        <v>1.093768226682343</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5696781605489001</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.072981267029945</v>
+      </c>
+      <c r="R21">
+        <v>0.6198717987797053</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.026515823976297</v>
+        <v>3.65500809700228</v>
       </c>
       <c r="C22">
-        <v>1.227678876685957</v>
+        <v>1.292719225652831</v>
       </c>
       <c r="D22">
-        <v>0.1335665478587416</v>
+        <v>0.1545344121740015</v>
       </c>
       <c r="E22">
-        <v>0.1373712943236605</v>
+        <v>0.1397022527304799</v>
       </c>
       <c r="F22">
-        <v>1.693473080458901</v>
+        <v>1.443146095121193</v>
       </c>
       <c r="G22">
-        <v>1.349417713261204</v>
+        <v>1.349782334988475</v>
       </c>
       <c r="H22">
-        <v>0.01031688263866429</v>
+        <v>0.00805819673255101</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7607233122314199</v>
+        <v>0.4433585724357556</v>
       </c>
       <c r="K22">
-        <v>0.5172535922355976</v>
+        <v>0.3877846882648583</v>
       </c>
       <c r="L22">
-        <v>0.1746070381415237</v>
+        <v>0.1666591935977344</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1508791951181294</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1657862957488945</v>
       </c>
       <c r="O22">
-        <v>1.173885567890906</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.5450600800678096</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.143994868591776</v>
+      </c>
+      <c r="R22">
+        <v>0.6083498730834407</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.876651302132814</v>
+        <v>3.541639932759608</v>
       </c>
       <c r="C23">
-        <v>1.181834141617458</v>
+        <v>1.257843217787354</v>
       </c>
       <c r="D23">
-        <v>0.1295965151948337</v>
+        <v>0.1476212225127256</v>
       </c>
       <c r="E23">
-        <v>0.133407171115465</v>
+        <v>0.1351502753245022</v>
       </c>
       <c r="F23">
-        <v>1.645495654777719</v>
+        <v>1.425117733378414</v>
       </c>
       <c r="G23">
-        <v>1.306902895013593</v>
+        <v>1.263812096553323</v>
       </c>
       <c r="H23">
-        <v>0.008794589734269248</v>
+        <v>0.006903451660563886</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.743066794625463</v>
+        <v>0.4962119160294378</v>
       </c>
       <c r="K23">
-        <v>0.5068961250104991</v>
+        <v>0.3897355942203404</v>
       </c>
       <c r="L23">
-        <v>0.169647899082257</v>
+        <v>0.1704149596795617</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1469788665348055</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1615499296764682</v>
       </c>
       <c r="O23">
-        <v>1.131081078906476</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.558108829454067</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.107262842347474</v>
+      </c>
+      <c r="R23">
+        <v>0.6133737850916461</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.312447811414359</v>
+        <v>3.085103860655977</v>
       </c>
       <c r="C24">
-        <v>1.009349555818545</v>
+        <v>1.104660105966047</v>
       </c>
       <c r="D24">
-        <v>0.1146739110488255</v>
+        <v>0.1252196282498161</v>
       </c>
       <c r="E24">
-        <v>0.1185356607650405</v>
+        <v>0.1191196630640654</v>
       </c>
       <c r="F24">
-        <v>1.468180161283527</v>
+        <v>1.330685423427184</v>
       </c>
       <c r="G24">
-        <v>1.150287171276744</v>
+        <v>1.014348151347235</v>
       </c>
       <c r="H24">
-        <v>0.004070003744775175</v>
+        <v>0.003233995898620501</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6785045020401412</v>
+        <v>0.6301086874017017</v>
       </c>
       <c r="K24">
-        <v>0.4698642012104486</v>
+        <v>0.3879956378172267</v>
       </c>
       <c r="L24">
-        <v>0.1510570171122367</v>
+        <v>0.181751827260765</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1291332851696225</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1454383846425245</v>
       </c>
       <c r="O24">
-        <v>0.9698687481571682</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6094590922761967</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.9616003918388145</v>
+      </c>
+      <c r="R24">
+        <v>0.6413165247714474</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.709480438967432</v>
+        <v>2.542437541673564</v>
       </c>
       <c r="C25">
-        <v>0.8251900645823014</v>
+        <v>0.9004484895792473</v>
       </c>
       <c r="D25">
-        <v>0.09875180342452694</v>
+        <v>0.1073510862610689</v>
       </c>
       <c r="E25">
-        <v>0.1027061477854829</v>
+        <v>0.1037610289791466</v>
       </c>
       <c r="F25">
-        <v>1.2849921401328</v>
+        <v>1.179965206843605</v>
       </c>
       <c r="G25">
-        <v>0.989396157967974</v>
+        <v>0.8719461484993332</v>
       </c>
       <c r="H25">
-        <v>0.0009208840659189477</v>
+        <v>0.000693222449280162</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6131684920539726</v>
+        <v>0.5917713313367585</v>
       </c>
       <c r="K25">
-        <v>0.4340271962037363</v>
+        <v>0.3685504227852476</v>
       </c>
       <c r="L25">
-        <v>0.1312825277114058</v>
+        <v>0.1874165987231109</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1051341861882804</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1277123115093808</v>
       </c>
       <c r="O25">
-        <v>0.7974751567014735</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.6686393904583845</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.7925405392684652</v>
+      </c>
+      <c r="R25">
+        <v>0.6853154056131849</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
